--- a/Out/OPCIONES PARA ICA2A - 1.xlsx
+++ b/Out/OPCIONES PARA ICA2A - 1.xlsx
@@ -475,13 +475,13 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQ10]</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -491,13 +491,13 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQ10]</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -507,18 +507,14 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQ10]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -527,16 +523,20 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQ10]</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -548,11 +548,15 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -564,11 +568,15 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -587,11 +595,7 @@
           <t>LAB. TOPOGRAFÍA A [LTT2]</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -607,11 +611,7 @@
           <t>LAB. TOPOGRAFÍA A [LTT2]</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -619,31 +619,15 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -651,31 +635,15 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -683,31 +651,15 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -715,31 +667,15 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -747,10 +683,26 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -759,10 +711,26 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -771,10 +739,26 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -783,10 +767,26 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -909,13 +909,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -929,13 +929,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -949,13 +949,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -969,13 +969,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1069,9 +1069,17 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -1081,9 +1089,17 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -1093,14 +1109,18 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1109,12 +1129,24 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -1125,16 +1157,16 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -1145,16 +1177,16 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -1165,23 +1197,15 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1189,23 +1213,15 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1213,31 +1229,15 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1245,31 +1245,15 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1277,31 +1261,15 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1309,31 +1277,15 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1341,10 +1293,26 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1353,10 +1321,26 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1365,10 +1349,26 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1377,10 +1377,26 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1389,17 +1405,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -1409,17 +1417,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -1429,17 +1429,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -1449,17 +1441,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -1476,7 +1460,11 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1492,7 +1480,11 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1508,7 +1500,11 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1524,7 +1520,11 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1665,11 +1665,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU7]</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -1681,11 +1677,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU7]</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -1697,16 +1689,8 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU7]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1716,15 +1700,15 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU7]</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -1736,11 +1720,15 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -1752,11 +1740,15 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -1775,11 +1767,7 @@
           <t>LAB. TOPOGRAFÍA A [LTT2]</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1795,11 +1783,7 @@
           <t>LAB. TOPOGRAFÍA A [LTT2]</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1807,31 +1791,15 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1839,31 +1807,15 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1871,31 +1823,15 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1903,31 +1839,15 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1935,10 +1855,26 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1947,10 +1883,26 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1959,10 +1911,26 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1971,10 +1939,26 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -2038,7 +2022,11 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -2054,7 +2042,11 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2070,7 +2062,11 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -2086,7 +2082,11 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2097,13 +2097,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -2117,13 +2117,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2137,13 +2137,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2157,13 +2157,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2259,7 +2259,11 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQ10]</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -2271,7 +2275,11 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQ10]</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -2283,12 +2291,12 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQ10]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -2298,11 +2306,19 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQ10]</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -2314,11 +2330,15 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -2330,11 +2350,15 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -2346,18 +2370,14 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2366,18 +2386,14 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2385,31 +2401,15 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2417,31 +2417,15 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2449,31 +2433,15 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2481,31 +2449,15 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2513,10 +2465,26 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -2525,10 +2493,26 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -2537,10 +2521,26 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -2549,10 +2549,26 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -2563,11 +2579,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ12]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -2579,11 +2591,7 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ12]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -2595,11 +2603,7 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ12]</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -2611,11 +2615,7 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ12]</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -2691,13 +2691,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -2711,13 +2711,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2731,13 +2731,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2751,13 +2751,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2851,11 +2851,7 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -2867,11 +2863,7 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -2883,18 +2875,10 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -2903,16 +2887,16 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -2924,11 +2908,15 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -2940,11 +2928,15 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -2956,18 +2948,14 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2976,18 +2964,14 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2995,31 +2979,15 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3027,31 +2995,15 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3059,31 +3011,15 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3091,31 +3027,15 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3123,10 +3043,26 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -3135,10 +3071,26 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -3147,10 +3099,26 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -3159,10 +3127,26 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -3171,17 +3155,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -3191,17 +3167,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -3211,17 +3179,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -3231,17 +3191,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -3258,7 +3210,11 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -3274,7 +3230,11 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -3290,7 +3250,11 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -3306,7 +3270,11 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -3315,9 +3283,17 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -3327,9 +3303,17 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -3339,9 +3323,17 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -3351,9 +3343,17 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -3449,7 +3449,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU7]</t>
+          <t>LAB. QUÍMICA [LQ10]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -3465,7 +3465,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU7]</t>
+          <t>LAB. QUÍMICA [LQ10]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -3481,14 +3481,10 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU7]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQ10]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -3498,15 +3494,19 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU7]</t>
+          <t>LAB. QUÍMICA [LQ10]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -3518,11 +3518,15 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -3534,11 +3538,15 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -3557,11 +3565,7 @@
           <t>LAB. TOPOGRAFÍA A [LTT2]</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3577,11 +3581,7 @@
           <t>LAB. TOPOGRAFÍA A [LTT2]</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3589,31 +3589,15 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3621,31 +3605,15 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3653,31 +3621,15 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3685,31 +3637,15 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3717,10 +3653,26 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -3729,10 +3681,26 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -3741,10 +3709,26 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -3753,10 +3737,26 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -3765,18 +3765,18 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -3785,18 +3785,18 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -3805,18 +3805,18 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -3825,18 +3825,18 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -4066,11 +4066,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -4080,11 +4076,15 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -4096,11 +4096,15 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -4112,11 +4116,15 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -4135,11 +4143,7 @@
           <t>LAB. TOPOGRAFÍA A [LTT2]</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4155,11 +4159,7 @@
           <t>LAB. TOPOGRAFÍA A [LTT2]</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4167,31 +4167,15 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4199,31 +4183,15 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4231,31 +4199,15 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4263,31 +4215,15 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4295,10 +4231,26 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -4307,10 +4259,26 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -4319,10 +4287,26 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -4331,10 +4315,26 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -4343,14 +4343,18 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -4359,14 +4363,18 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -4375,14 +4383,18 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -4391,14 +4403,18 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -4414,7 +4430,11 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -4430,7 +4450,11 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -4446,7 +4470,11 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -4462,7 +4490,11 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -4471,17 +4503,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -4491,17 +4515,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -4511,17 +4527,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -4531,17 +4539,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -4635,7 +4635,11 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQ10]</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -4647,7 +4651,11 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQ10]</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -4659,12 +4667,12 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQ10]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -4674,11 +4682,19 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQ10]</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -4690,15 +4706,15 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU4]</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -4710,15 +4726,15 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU4]</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -4730,22 +4746,14 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU4]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4754,22 +4762,14 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU4]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4777,31 +4777,15 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4809,31 +4793,15 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4841,31 +4809,15 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4873,31 +4825,15 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4905,10 +4841,26 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -4917,10 +4869,26 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -4929,10 +4897,26 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -4941,10 +4925,26 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -4954,9 +4954,17 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -4966,9 +4974,17 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -4978,9 +4994,17 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -4990,9 +5014,17 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -5065,17 +5097,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -5085,17 +5109,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -5105,17 +5121,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -5125,17 +5133,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -5254,11 +5254,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -5268,11 +5264,15 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -5284,15 +5284,15 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU4]</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU4]</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -5324,22 +5324,14 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU4]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5348,22 +5340,14 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU4]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5371,31 +5355,15 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5403,31 +5371,15 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5435,31 +5387,15 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5467,31 +5403,15 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5499,10 +5419,26 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -5511,10 +5447,26 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -5523,10 +5475,26 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -5535,10 +5503,26 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -5547,18 +5531,18 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -5567,18 +5551,18 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -5587,18 +5571,18 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -5607,18 +5591,18 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -5634,7 +5618,11 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -5650,7 +5638,11 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -5666,7 +5658,11 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -5682,7 +5678,11 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -5821,9 +5821,17 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -5833,9 +5841,17 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -5845,14 +5861,18 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -5861,12 +5881,24 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -5877,16 +5909,16 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -5897,16 +5929,16 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -5917,11 +5949,7 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -5929,11 +5957,7 @@
           <t>LAB. TOPOGRAFÍA A [LTT2]</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5941,11 +5965,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
@@ -5953,11 +5973,7 @@
           <t>LAB. TOPOGRAFÍA A [LTT2]</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5965,31 +5981,15 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5997,31 +5997,15 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6029,31 +6013,15 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -6061,31 +6029,15 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6093,10 +6045,26 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -6105,10 +6073,26 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -6117,10 +6101,26 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -6129,10 +6129,26 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -6196,7 +6212,11 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -6212,7 +6232,11 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -6228,7 +6252,11 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -6244,7 +6272,11 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -6253,17 +6285,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -6273,17 +6297,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -6293,17 +6309,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -6313,17 +6321,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
